--- a/biology/Botanique/Licuala/Licuala.xlsx
+++ b/biology/Botanique/Licuala/Licuala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Licuala est un genre végétal de la famille des Arecaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille : Coryphoideae
 Tribu : Trachycarpeae
 Sous-tribu : Livistoninae
-Le genre partage sa sous-tribu avec 5 autres genres :  Livistona, Pholidocarpus,  Johannesteijsmannia, Saribus et  Lanonia [1].
+Le genre partage sa sous-tribu avec 5 autres genres :  Livistona, Pholidocarpus,  Johannesteijsmannia, Saribus et  Lanonia .
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (11 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (11 mars 2012) :
 Licuala acaulis A.J.Hend., N.K.Ban &amp; N.Q.Dung (2008)
 Licuala acuminata Burret, Notizbl. Bot. Gart. Berlin-Dahlem 15: 330 (1941).
 Licuala acutifida Mart., Hist. Nat. Palm. 3: 237 (1838).
@@ -729,7 +745,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) William J. Baker et John Dransfield, « Beyond Genera Palmarum : progress and prospects in palm systematics », Botanical Journal of the Linnean Society, vol. 182, no 2,‎ octobre 2016, p. 207–233 (ISSN 0024-4074, DOI 10.1111/boj.12401, lire en ligne, consulté le 12 juillet 2023)
